--- a/Project Plan 2025.xlsx
+++ b/Project Plan 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrbes/Projects/ChatCommit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A9304-5844-C244-B084-E41EA07A0B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B7FA2-BEFA-294D-8A38-B7C18A3C7E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{50052AFE-25F9-724C-8834-CD92249D7E00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Component / Feature</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Commit bug fix (creation failure)</t>
-  </si>
-  <si>
-    <t>🐞 To Do</t>
   </si>
   <si>
     <t>Needs debugging + frontend feedback</t>
@@ -185,6 +182,27 @@
   </si>
   <si>
     <t>Post launch</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Needs to be testted</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search by commit tags </t>
+  </si>
+  <si>
+    <t>User sign on? Or is that done through the settings in the extension?</t>
+  </si>
+  <si>
+    <t>Modify database to support accounts!</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -573,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19122A5-DE9C-FD49-8CE1-B9A309D9CF27}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,13 +662,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -661,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -670,12 +688,12 @@
         <v>45749</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -687,194 +705,220 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45751</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45751</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45757</v>
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>45761</v>
+        <v>45757</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>45763</v>
+        <v>45761</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>45769</v>
+        <v>45763</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45771</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45769</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45771</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45773</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45773</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan 2025.xlsx
+++ b/Project Plan 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrbes/Projects/ChatCommit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B7FA2-BEFA-294D-8A38-B7C18A3C7E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5A699-595B-DB42-A30A-77CF0687D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{50052AFE-25F9-724C-8834-CD92249D7E00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Component / Feature</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Est. Effort (hrs)</t>
   </si>
   <si>
-    <t>Est. Date (EOD)</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Rollback functionality</t>
   </si>
   <si>
-    <t>Git-like rollback</t>
-  </si>
-  <si>
     <t>Commit bug fix (creation failure)</t>
   </si>
   <si>
@@ -95,31 +89,80 @@
     <t>🛠️ To Do</t>
   </si>
   <si>
+    <t>Branch switcher UI</t>
+  </si>
+  <si>
+    <t>UX tested</t>
+  </si>
+  <si>
+    <t>Commit form UI</t>
+  </si>
+  <si>
+    <t>Integrated with branch context</t>
+  </si>
+  <si>
+    <t>OpenAI Integration (via API key)</t>
+  </si>
+  <si>
+    <t>✅ Working</t>
+  </si>
+  <si>
+    <t>Includes popup UI + background injection</t>
+  </si>
+  <si>
+    <t>Merge logic, backend APIs</t>
+  </si>
+  <si>
+    <t>Tag timeline/history view</t>
+  </si>
+  <si>
+    <t>Visual timeline per tag</t>
+  </si>
+  <si>
+    <t>Markdown docs on GitHub</t>
+  </si>
+  <si>
+    <t>Deployment (Fly.io/Render + DB setup)</t>
+  </si>
+  <si>
+    <t>MVP deployment for feedback</t>
+  </si>
+  <si>
+    <t>Promotion (LinkedIn, Twitter, IndieHackers)</t>
+  </si>
+  <si>
+    <t>Post launch</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Est. Date</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Git‑like rollback, needs testing</t>
+  </si>
+  <si>
+    <t>2‑Apr</t>
+  </si>
+  <si>
+    <t>Search by commit tags</t>
+  </si>
+  <si>
+    <t>4‑Apr</t>
+  </si>
+  <si>
+    <t>Show tags on CommitCard</t>
+  </si>
+  <si>
+    <t>Per‑branch commit log</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Show tags on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>CommitCard</t>
-    </r>
-  </si>
-  <si>
-    <t>Branch switcher UI</t>
-  </si>
-  <si>
-    <t>UX tested</t>
-  </si>
-  <si>
-    <t>Per-branch commit log</t>
-  </si>
-  <si>
-    <r>
-      <t>/branch/[id]</t>
+      <t>/branches/[id]</t>
     </r>
     <r>
       <rPr>
@@ -133,76 +176,40 @@
     </r>
   </si>
   <si>
-    <t>Commit form UI</t>
-  </si>
-  <si>
-    <t>Integrated with branch context</t>
-  </si>
-  <si>
-    <t>OpenAI Integration (via API key)</t>
-  </si>
-  <si>
-    <t>✅ Working</t>
-  </si>
-  <si>
-    <t>Chat-to-commit proofed</t>
-  </si>
-  <si>
-    <t>Browser extension for ChatGPT -&gt; ChatCommit</t>
-  </si>
-  <si>
-    <t>Includes popup UI + background injection</t>
-  </si>
-  <si>
-    <t>Git-like features (merge, timeline, diff)</t>
-  </si>
-  <si>
-    <t>Merge logic, backend APIs</t>
-  </si>
-  <si>
-    <t>Tag timeline/history view</t>
-  </si>
-  <si>
-    <t>Visual timeline per tag</t>
-  </si>
-  <si>
-    <t>Docs (README, How-To, Architecture)</t>
-  </si>
-  <si>
-    <t>Markdown docs on GitHub</t>
-  </si>
-  <si>
-    <t>Deployment (Fly.io/Render + DB setup)</t>
-  </si>
-  <si>
-    <t>MVP deployment for feedback</t>
-  </si>
-  <si>
-    <t>Promotion (LinkedIn, Twitter, IndieHackers)</t>
-  </si>
-  <si>
-    <t>Post launch</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Needs to be testted</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search by commit tags </t>
-  </si>
-  <si>
-    <t>User sign on? Or is that done through the settings in the extension?</t>
-  </si>
-  <si>
-    <t>Modify database to support accounts!</t>
-  </si>
-  <si>
-    <t>Working</t>
+    <t>Chat‑to‑commit proofed</t>
+  </si>
+  <si>
+    <t>Browser extension for ChatGPT → ChatCommit</t>
+  </si>
+  <si>
+    <t>10‑Apr</t>
+  </si>
+  <si>
+    <t>Git‑like features (merge, timeline, diff)</t>
+  </si>
+  <si>
+    <t>14‑Apr</t>
+  </si>
+  <si>
+    <t>16‑Apr</t>
+  </si>
+  <si>
+    <t>User sign‑on (extension settings?)</t>
+  </si>
+  <si>
+    <t>Modify database to support accounts</t>
+  </si>
+  <si>
+    <t>Docs (README, How‑To, Architecture)</t>
+  </si>
+  <si>
+    <t>22‑Apr</t>
+  </si>
+  <si>
+    <t>24‑Apr</t>
+  </si>
+  <si>
+    <t>26‑Apr</t>
   </si>
 </sst>
 </file>
@@ -252,10 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +600,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,308 +623,315 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>45749</v>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>45751</v>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
-        <v>45757</v>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
-        <v>45761</v>
+      <c r="D14" t="s">
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>45763</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" s="2">
-        <v>45769</v>
+      <c r="D18" t="s">
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>45771</v>
+      <c r="D19" t="s">
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
-        <v>45773</v>
+      <c r="D20" t="s">
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan 2025.xlsx
+++ b/Project Plan 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrbes/Projects/ChatCommit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5A699-595B-DB42-A30A-77CF0687D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEA1F1-B2F4-7443-93B6-880512C27AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{50052AFE-25F9-724C-8834-CD92249D7E00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>Component / Feature</t>
   </si>
@@ -210,13 +210,370 @@
   </si>
   <si>
     <t>26‑Apr</t>
+  </si>
+  <si>
+    <t>Here are ten high‑impact channels you can use to promote ChatCommit, along with a brief description of each:</t>
+  </si>
+  <si>
+    <t>Product Hunt</t>
+  </si>
+  <si>
+    <t>Launch your app on Product Hunt to reach an audience of early adopters and makers.</t>
+  </si>
+  <si>
+    <t>🔗 https://www.producthunt.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Showcase new features, gather feedback, and climb the daily leaderboard.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indie Hackers</t>
+  </si>
+  <si>
+    <t>Share your journey and updates with a community of bootstrappers.</t>
+  </si>
+  <si>
+    <t>🔗 https://www.indiehackers.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Post a “Launch” thread, participate in discussions, and ask for feedback.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hacker News</t>
+  </si>
+  <si>
+    <t>Submit a “Show HN: ChatCommit…” post to the Y Combinator community.</t>
+  </si>
+  <si>
+    <t>🔗 https://news.ycombinator.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If your product resonates, it can drive significant traffic and interest.</t>
+    </r>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Tweet feature announcements, tutorials, and success stories.</t>
+  </si>
+  <si>
+    <t>🔗 https://twitter.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Use hashtags like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#Productivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#DevTools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to increase visibility.</t>
+    </r>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Write an article about how ChatCommit streamlines ChatGPT version control.</t>
+  </si>
+  <si>
+    <t>🔗 https://www.linkedin.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Share in relevant groups (e.g., “AI &amp; Machine Learning,” “Software Development”).</t>
+    </r>
+  </si>
+  <si>
+    <t>Reddit – r/Productivity</t>
+  </si>
+  <si>
+    <t>Introduce ChatCommit to a productivity‑focused audience.</t>
+  </si>
+  <si>
+    <t>🔗 https://www.reddit.com/r/productivity/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Highlight how it helps maintain conversation history and project notes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reddit – r/ArtificialIntelligence</t>
+  </si>
+  <si>
+    <t>Engage AI enthusiasts who use ChatGPT regularly.</t>
+  </si>
+  <si>
+    <t>🔗 https://www.reddit.com/r/artificial/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Share use cases and ask for feedback on AI‑driven features.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dev.to</t>
+  </si>
+  <si>
+    <t>Write a technical post about integrating ChatCommit into your workflow.</t>
+  </si>
+  <si>
+    <t>🔗 https://dev.to/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tag with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nextjs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fastapi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for targeted reach.</t>
+    </r>
+  </si>
+  <si>
+    <t>GitHub Discussions</t>
+  </si>
+  <si>
+    <t>Open a Discussion in your repo for “Showcase &amp; Feedback.”</t>
+  </si>
+  <si>
+    <t>🔗 https://github.com/nrbessmer/ChatCommit/discussions</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Encourage users to share how they’re using the tool and suggest features.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stack Overflow Chat Rooms</t>
+  </si>
+  <si>
+    <t>Join relevant chat rooms (e.g., “#javascript,” “#python”) and share your project link.</t>
+  </si>
+  <si>
+    <t>🔗 https://chat.stackoverflow.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Engage in real‑time with developers, answer questions, and casually mention ChatCommit when relevant.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +595,22 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,15 +629,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19122A5-DE9C-FD49-8CE1-B9A309D9CF27}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +1311,223 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="https://www.producthunt.com/" xr:uid="{8AB02FEC-FDF7-AB4B-B2A1-CA5541F650FA}"/>
+    <hyperlink ref="A31" r:id="rId2" display="https://www.indiehackers.com/" xr:uid="{7CD1B382-1E07-104E-ADD8-4E8A7458230A}"/>
+    <hyperlink ref="A41" r:id="rId3" display="https://twitter.com/" xr:uid="{91E0DCFD-0009-EC4C-91E2-EE0776536746}"/>
+    <hyperlink ref="A46" r:id="rId4" display="https://www.linkedin.com/" xr:uid="{77D83AE8-28A4-954D-B027-4E1DEB227578}"/>
+    <hyperlink ref="A51" r:id="rId5" display="https://www.reddit.com/r/productivity/" xr:uid="{0C1EBCB9-F19F-2F49-829B-CA68E43BD6A3}"/>
+    <hyperlink ref="A56" r:id="rId6" display="https://www.reddit.com/r/artificial/" xr:uid="{739C057D-C310-E74C-87F5-09E79E668EEB}"/>
+    <hyperlink ref="A61" r:id="rId7" display="https://dev.to/" xr:uid="{8B353EC1-D74A-5947-8224-D6263CF84A5E}"/>
+    <hyperlink ref="A66" r:id="rId8" display="https://github.com/nrbessmer/ChatCommit/discussions" xr:uid="{27B21A11-9716-BC42-A192-BDA0B00D29D2}"/>
+    <hyperlink ref="A71" r:id="rId9" display="https://chat.stackoverflow.com/" xr:uid="{F3A77702-AC4E-B04C-9A1B-026507E39F16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project Plan 2025.xlsx
+++ b/Project Plan 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrbes/Projects/ChatCommit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEA1F1-B2F4-7443-93B6-880512C27AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C78E9-8BF2-6B47-8792-6C30B723CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{50052AFE-25F9-724C-8834-CD92249D7E00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Component / Feature</t>
   </si>
@@ -119,21 +119,6 @@
     <t>Visual timeline per tag</t>
   </si>
   <si>
-    <t>Markdown docs on GitHub</t>
-  </si>
-  <si>
-    <t>Deployment (Fly.io/Render + DB setup)</t>
-  </si>
-  <si>
-    <t>MVP deployment for feedback</t>
-  </si>
-  <si>
-    <t>Promotion (LinkedIn, Twitter, IndieHackers)</t>
-  </si>
-  <si>
-    <t>Post launch</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -200,18 +185,6 @@
     <t>Modify database to support accounts</t>
   </si>
   <si>
-    <t>Docs (README, How‑To, Architecture)</t>
-  </si>
-  <si>
-    <t>22‑Apr</t>
-  </si>
-  <si>
-    <t>24‑Apr</t>
-  </si>
-  <si>
-    <t>26‑Apr</t>
-  </si>
-  <si>
     <t>Here are ten high‑impact channels you can use to promote ChatCommit, along with a brief description of each:</t>
   </si>
   <si>
@@ -567,6 +540,24 @@
       </rPr>
       <t xml:space="preserve"> Engage in real‑time with developers, answer questions, and casually mention ChatCommit when relevant.</t>
     </r>
+  </si>
+  <si>
+    <t>Branch CRUD (update, delete)</t>
+  </si>
+  <si>
+    <t>Edit branch name; delete branch</t>
+  </si>
+  <si>
+    <t>Commit CRUD (update message, delete)</t>
+  </si>
+  <si>
+    <t>Edit commit message; delete commit</t>
+  </si>
+  <si>
+    <t>Tag CRUD (update name, delete)</t>
+  </si>
+  <si>
+    <t>Rename or remove tags</t>
   </si>
 </sst>
 </file>
@@ -976,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19122A5-DE9C-FD49-8CE1-B9A309D9CF27}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1024,138 +1015,138 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1164,356 +1155,356 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
